--- a/【长沙-王志玉】-组员进度表.xlsx
+++ b/【长沙-王志玉】-组员进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4710"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="进度表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>1：登录框架 2：注册框架3：购物车框架</t>
+  </si>
+  <si>
+    <t>1,2，静态框架完成，3未完成</t>
+  </si>
+  <si>
+    <t>20:55完成</t>
+  </si>
+  <si>
+    <t>提高速度</t>
+  </si>
+  <si>
+    <t>小细节处理</t>
   </si>
   <si>
     <t>第二天</t>
@@ -69,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -90,28 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -121,46 +111,113 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,47 +240,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,181 +261,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,11 +451,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,7 +491,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -495,45 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1086,17 +1098,25 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="52" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1105,10 +1125,10 @@
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1117,10 +1137,10 @@
     </row>
     <row r="5" ht="53" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1129,10 +1149,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙-王志玉】-组员进度表.xlsx
+++ b/【长沙-王志玉】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +56,16 @@
   </si>
   <si>
     <t>1：继续第一天未完成的框架 2：整合团队框架3：分工js</t>
+  </si>
+  <si>
+    <t>1登录页面框架和js完成2注册页面的框架完成js 剩验证码未完成</t>
+  </si>
+  <si>
+    <t>代码有点多 
+看的有点蒙</t>
+  </si>
+  <si>
+    <t>ajax的运用更熟练</t>
   </si>
   <si>
     <t>第三天</t>
@@ -81,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +109,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,13 +152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,32 +159,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,61 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,61 +277,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,109 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,15 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,130 +576,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,7 +1068,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1118,17 +1128,25 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1137,10 +1155,10 @@
     </row>
     <row r="5" ht="53" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1149,10 +1167,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙-王志玉】-组员进度表.xlsx
+++ b/【长沙-王志玉】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>写js 各种动画效果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录和注册框架和js完成
+准备分享和达人页面的框架以及js
+</t>
+  </si>
+  <si>
+    <t>20:58完成</t>
+  </si>
+  <si>
+    <t>验证码插件的讲解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对js进一步了解，尤其是登录和注册的时候对象的选取，函数方法的运用
+</t>
   </si>
   <si>
     <t>第四天</t>
@@ -91,8 +106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,6 +127,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -128,6 +233,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -135,122 +248,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,31 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,145 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,80 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,6 +497,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1083,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1148,17 +1163,25 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" ht="53" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1167,10 +1190,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
